--- a/week_9/data/testcase.xlsx
+++ b/week_9/data/testcase.xlsx
@@ -912,7 +912,7 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I3" s="13" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>该用户已存在</t>
+          <t>该手机号已被注册</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I5" s="4" t="n"/>
@@ -1246,12 +1246,27 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>SqlMapClient operation; SQL [];   
+--- The error occurred in META-INF/ibatis/sqlmap/app-insert-sqlmap-mapping.xml.  
+--- The error occurred while applying a parameter map.  
+--- Check the insertUserInfo-InlineParameterMap.  
+--- Check the statement (update failed).  
+--- Cause: com.mysql.jdbc.exceptions.jdbc4.MySQLIntegrityConstraintViolationException: Duplicate entry 'å¼ é¢–' for key 'idx_username'; nested exception is com.ibatis.common.jdbc.exception.NestedSQLException:   
+--- The error occurred in META-INF/ibatis/sqlmap/app-insert-sqlmap-mapping.xml.  
+--- The error occurred while applying a parameter map.  
+--- Check the insertUserInfo-InlineParameterMap.  
+--- Check the statement (update failed).  
+--- Cause: com.mysql.jdbc.exceptions.jdbc4.MySQLIntegrityConstraintViolationException: Duplicate entry 'å¼ é¢–' for key 'idx_username'; nested exception is com.ibatis.common.jdbc.exception.NestedSQLException:   
+--- The error occurred in META-INF/ibatis/sqlmap/app-insert-sqlmap-mapping.xml.  
+--- The error occurred while applying a parameter map.  
+--- Check the insertUserInfo-InlineParameterMap.  
+--- Check the statement (update failed).  
+--- Cause: com.mysql.jdbc.exceptions.jdbc4.MySQLIntegrityConstraintViolationException: Duplicate entry 'å¼ é¢–' for key 'idx_username'</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -1753,12 +1768,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>用户实名信息比对错误</t>
+          <t>卡号错误</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I5" s="3" t="n"/>
